--- a/공동/졸작 계획서_공용_2학기.xlsx
+++ b/공동/졸작 계획서_공용_2학기.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChangHyeon\Desktop\23TH_TUK_Senior_Project\공동\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\23TH_TUK_Senior_Project\공동\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4683D51-130D-47A7-B5C0-8ABEA4D04BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5F464E-F77D-4DDC-B0C0-D2561A08E891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="2880" windowWidth="29205" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 시간 표시 막대" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>각 액터 별 추가 요소 구상 및 구현 시도</t>
   </si>
@@ -90,39 +90,11 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>애니메이션과 피직스 시뮬레이션 블렌드</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 맵 추가</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시 모핑</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>uv 노이즈 마테리얼</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>중간고사</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>액터별 상호작용(파이프와 슬라임)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>나이아가라</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ai 비헤이비어 트리</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>언리얼 인사이트</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -163,6 +135,42 @@
   </si>
   <si>
     <t>유데미 블렌더 관련 강의 학습</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 동기화 실습</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션과 피직스 시뮬레이션 블렌드</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시 모핑, uv 노이즈 마테리얼</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임잼 프로젝트에 서버 연결</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이아가라로 소프트 바디 느낌내기</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸작 프로젝트에 서버와 클라이언트 권한 상호작용</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>언리얼 인사이트 사용법 학습</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>언리얼 인사이트 분석 및 최적화</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주일 게임잼(매터리얼 효과와 충돌 기믹 위주로 구현)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -886,12 +894,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -910,10 +912,10 @@
     <xf numFmtId="0" fontId="0" fillId="43" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,6 +925,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1269,16 +1277,21 @@
   </sheetPr>
   <dimension ref="B1:AD33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:P26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="13.625" style="3" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="2" customWidth="1"/>
-    <col min="18" max="30" width="5.625" customWidth="1"/>
+    <col min="3" max="15" width="5.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="5.625" style="2" customWidth="1"/>
+    <col min="18" max="22" width="5.625" customWidth="1"/>
+    <col min="23" max="23" width="10.25" customWidth="1"/>
+    <col min="24" max="29" width="5.625" customWidth="1"/>
+    <col min="30" max="30" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="48.75" customHeight="1">
@@ -1683,31 +1696,33 @@
       <c r="G7" s="14"/>
       <c r="H7" s="13"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1" thickBot="1">
       <c r="B8" s="12" t="str">
@@ -1721,33 +1736,33 @@
       <c r="G8" s="14"/>
       <c r="H8" s="13"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
     </row>
     <row r="9" spans="2:30" ht="30" customHeight="1">
       <c r="B9" s="12" t="str">
@@ -1761,33 +1776,33 @@
       <c r="G9" s="14"/>
       <c r="H9" s="13"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26" t="s">
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26" t="s">
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
     </row>
     <row r="10" spans="2:30" ht="30" customHeight="1">
       <c r="B10" s="12"/>
@@ -2139,126 +2154,126 @@
         <f>TEXT("고윤범","aaa")</f>
         <v>고윤범</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
+      <c r="C13" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
     </row>
     <row r="14" spans="2:30" ht="30" customHeight="1" thickBot="1">
       <c r="B14" s="12" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
+        <f>TEXT("노창현","aaa")</f>
+        <v>노창현</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
     </row>
     <row r="15" spans="2:30" ht="30" customHeight="1">
       <c r="B15" s="12" t="str">
         <f>TEXT("양재성","aaa")</f>
         <v>양재성</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26" t="s">
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="28" t="s">
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
     </row>
     <row r="16" spans="2:30" ht="30" customHeight="1">
       <c r="B16" s="12"/>
@@ -2610,124 +2625,126 @@
         <f>TEXT("고윤범","aaa")</f>
         <v>고윤범</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
+      <c r="C19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
     </row>
     <row r="20" spans="2:30" ht="30" customHeight="1" thickBot="1">
       <c r="B20" s="12" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
+        <f>TEXT("노창현","aaa")</f>
+        <v>노창현</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
     </row>
     <row r="21" spans="2:30" ht="30" customHeight="1">
       <c r="B21" s="12" t="str">
         <f>TEXT("양재성","aaa")</f>
         <v>양재성</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="26" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26" t="s">
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26" t="s">
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
     </row>
     <row r="22" spans="2:30" ht="30" customHeight="1">
       <c r="B22" s="12"/>
@@ -3079,126 +3096,126 @@
         <f>TEXT("고윤범","aaa")</f>
         <v>고윤범</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
+      <c r="C25" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
     </row>
     <row r="26" spans="2:30" ht="30" customHeight="1" thickBot="1">
       <c r="B26" s="12" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
+        <f>TEXT("노창현","aaa")</f>
+        <v>노창현</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
     </row>
     <row r="27" spans="2:30" ht="30" customHeight="1">
       <c r="B27" s="12" t="str">
         <f>TEXT("양재성","aaa")</f>
         <v>양재성</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="27" t="s">
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="28" t="s">
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
     </row>
     <row r="28" spans="2:30" ht="30" customHeight="1">
       <c r="B28" s="12"/>
@@ -3550,15 +3567,15 @@
         <f>TEXT("고윤범","aaa")</f>
         <v>고윤범</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
+      <c r="C31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
       <c r="J31" s="13"/>
       <c r="K31" s="14"/>
       <c r="L31"/>
@@ -3583,18 +3600,18 @@
     </row>
     <row r="32" spans="2:30" ht="30" customHeight="1" thickBot="1">
       <c r="B32" s="12" t="str">
-        <f>TEXT("내용입력","aaa")</f>
-        <v>내용입력</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+        <f>TEXT("노창현","aaa")</f>
+        <v>노창현</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="13"/>
       <c r="K32" s="14"/>
       <c r="L32" s="13"/>
@@ -3622,15 +3639,15 @@
         <f>TEXT("양재성","aaa")</f>
         <v>양재성</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
       <c r="J33" s="13"/>
       <c r="K33" s="14"/>
       <c r="L33" s="13"/>
@@ -3679,6 +3696,9 @@
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="J21:P21"/>
     <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:W25"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="J13:P13"/>
     <mergeCell ref="Q13:W13"/>
@@ -3692,9 +3712,6 @@
     <mergeCell ref="J14:P14"/>
     <mergeCell ref="Q14:W14"/>
     <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:W25"/>
     <mergeCell ref="X25:AD25"/>
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="X26:AD26"/>

--- a/공동/졸작 계획서_공용_2학기.xlsx
+++ b/공동/졸작 계획서_공용_2학기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChangHyeon\Desktop\23TH_TUK_Senior_Project\공동\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4683D51-130D-47A7-B5C0-8ABEA4D04BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D945C8CA-0AE3-4B6D-9C70-5A21BEE41997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="2880" windowWidth="29205" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2355" yWindow="3165" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 시간 표시 막대" sheetId="1" r:id="rId1"/>
@@ -886,13 +886,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="41" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -901,35 +916,20 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="6">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1282,48 +1282,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="48.75" customHeight="1">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
     </row>
     <row r="2" spans="2:30" ht="24.75" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="17">
         <f>DATEVALUE("2023/08/28")</f>
         <v>45166</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:30" ht="12.75" customHeight="1"/>
     <row r="4" spans="2:30" ht="18.75" customHeight="1">
@@ -1683,31 +1683,31 @@
       <c r="G7" s="14"/>
       <c r="H7" s="13"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1" thickBot="1">
       <c r="B8" s="12" t="str">
@@ -1721,15 +1721,15 @@
       <c r="G8" s="14"/>
       <c r="H8" s="13"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
       <c r="Q8" s="22" t="s">
         <v>28</v>
       </c>
@@ -1739,15 +1739,15 @@
       <c r="U8" s="23"/>
       <c r="V8" s="23"/>
       <c r="W8" s="23"/>
-      <c r="X8" s="25" t="s">
+      <c r="X8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
     </row>
     <row r="9" spans="2:30" ht="30" customHeight="1">
       <c r="B9" s="12" t="str">
@@ -1761,33 +1761,33 @@
       <c r="G9" s="14"/>
       <c r="H9" s="13"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26" t="s">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26" t="s">
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
     </row>
     <row r="10" spans="2:30" ht="30" customHeight="1">
       <c r="B10" s="12"/>
@@ -2139,42 +2139,42 @@
         <f>TEXT("고윤범","aaa")</f>
         <v>고윤범</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16" t="s">
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="18" t="s">
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
     </row>
     <row r="14" spans="2:30" ht="30" customHeight="1" thickBot="1">
       <c r="B14" s="12" t="str">
@@ -2190,15 +2190,15 @@
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
       <c r="Q14" s="22" t="s">
         <v>34</v>
       </c>
@@ -2208,57 +2208,57 @@
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
       <c r="W14" s="23"/>
-      <c r="X14" s="19" t="s">
+      <c r="X14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
     </row>
     <row r="15" spans="2:30" ht="30" customHeight="1">
       <c r="B15" s="12" t="str">
         <f>TEXT("양재성","aaa")</f>
         <v>양재성</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26" t="s">
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="28" t="s">
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
     </row>
     <row r="16" spans="2:30" ht="30" customHeight="1">
       <c r="B16" s="12"/>
@@ -2610,64 +2610,64 @@
         <f>TEXT("고윤범","aaa")</f>
         <v>고윤범</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="16" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16" t="s">
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
     </row>
     <row r="20" spans="2:30" ht="30" customHeight="1" thickBot="1">
       <c r="B20" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
       <c r="Q20" s="22" t="s">
         <v>32</v>
       </c>
@@ -2677,57 +2677,57 @@
       <c r="U20" s="23"/>
       <c r="V20" s="23"/>
       <c r="W20" s="23"/>
-      <c r="X20" s="25" t="s">
+      <c r="X20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
     </row>
     <row r="21" spans="2:30" ht="30" customHeight="1">
       <c r="B21" s="12" t="str">
         <f>TEXT("양재성","aaa")</f>
         <v>양재성</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="26" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26" t="s">
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26" t="s">
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
     </row>
     <row r="22" spans="2:30" ht="30" customHeight="1">
       <c r="B22" s="12"/>
@@ -3079,42 +3079,42 @@
         <f>TEXT("고윤범","aaa")</f>
         <v>고윤범</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="17" t="s">
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="18" t="s">
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
     </row>
     <row r="26" spans="2:30" ht="30" customHeight="1" thickBot="1">
       <c r="B26" s="12" t="str">
@@ -3130,75 +3130,75 @@
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="21" t="s">
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="19" t="s">
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
     </row>
     <row r="27" spans="2:30" ht="30" customHeight="1">
       <c r="B27" s="12" t="str">
         <f>TEXT("양재성","aaa")</f>
         <v>양재성</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26" t="s">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="27" t="s">
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="28" t="s">
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
     </row>
     <row r="28" spans="2:30" ht="30" customHeight="1">
       <c r="B28" s="12"/>
@@ -3550,15 +3550,15 @@
         <f>TEXT("고윤범","aaa")</f>
         <v>고윤범</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
       <c r="J31" s="13"/>
       <c r="K31" s="14"/>
       <c r="L31"/>
@@ -3586,15 +3586,15 @@
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
       <c r="J32" s="13"/>
       <c r="K32" s="14"/>
       <c r="L32" s="13"/>
@@ -3622,15 +3622,15 @@
         <f>TEXT("양재성","aaa")</f>
         <v>양재성</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
       <c r="J33" s="13"/>
       <c r="K33" s="14"/>
       <c r="L33" s="13"/>
@@ -3655,30 +3655,16 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B1:AD1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:W7"/>
-    <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:W8"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X25:AD25"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="X26:AD26"/>
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:W27"/>
+    <mergeCell ref="X27:AD27"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="J13:P13"/>
     <mergeCell ref="Q13:W13"/>
@@ -3692,19 +3678,33 @@
     <mergeCell ref="J14:P14"/>
     <mergeCell ref="Q14:W14"/>
     <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:W21"/>
     <mergeCell ref="C25:I25"/>
     <mergeCell ref="J25:P25"/>
     <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="X26:AD26"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:W27"/>
-    <mergeCell ref="X27:AD27"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="B1:AD1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:W7"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:W8"/>
+    <mergeCell ref="X8:AD8"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C5:AD6">
